--- a/Mifos Automation Excels/Client/2620-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2620-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-Newcreateloan1.xlsx
@@ -212,7 +212,7 @@
     <t>adjustrepaymentscheduleDate</t>
   </si>
   <si>
-    <t>2620-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT</t>
+    <t>2620-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-1st</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
